--- a/practice.xlsx
+++ b/practice.xlsx
@@ -14,28 +14,284 @@
   <sheets>
     <sheet name="prac" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>순위</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">영화제목 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>평점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="91">
+  <si>
+    <t>가을밤 떠난 너</t>
+  </si>
+  <si>
+    <t>케이시 (Kassy)</t>
+  </si>
+  <si>
+    <t>안녕</t>
+  </si>
+  <si>
+    <t>폴킴</t>
+  </si>
+  <si>
+    <t>헤어지자 (Prod. by 정키 (Jung Key))</t>
+  </si>
+  <si>
+    <t>휘인 (Whee In)</t>
+  </si>
+  <si>
+    <t>기억해줘요 내 모든 날과 그때를</t>
+  </si>
+  <si>
+    <t>거미 (Gummy)</t>
+  </si>
+  <si>
+    <t>오늘도 빛나는 너에게 (To You My Light) (Feat.이라온)</t>
+  </si>
+  <si>
+    <t>마크툽 (Maktub)</t>
+  </si>
+  <si>
+    <t>시든 꽃에 물을 주듯</t>
+  </si>
+  <si>
+    <t>HYNN (박혜원)</t>
+  </si>
+  <si>
+    <t>그대라는 시</t>
+  </si>
+  <si>
+    <t>태연 (TAEYEON)</t>
+  </si>
+  <si>
+    <t>벗</t>
+  </si>
+  <si>
+    <t>닐로 (Nilo)</t>
+  </si>
+  <si>
+    <t>Done For Me</t>
+  </si>
+  <si>
+    <t>펀치 (Punch)</t>
+  </si>
+  <si>
+    <t>니 소식</t>
+  </si>
+  <si>
+    <t>송하예</t>
+  </si>
+  <si>
+    <t>포장마차</t>
+  </si>
+  <si>
+    <t>황인욱</t>
+  </si>
+  <si>
+    <t>흔들리는 꽃들 속에서 네 샴푸향이 느껴진거야</t>
+  </si>
+  <si>
+    <t>장범준</t>
+  </si>
+  <si>
+    <t>술이 문제야</t>
+  </si>
+  <si>
+    <t>장혜진 &amp; 윤민수(바이브)</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>Anne Marie</t>
+  </si>
+  <si>
+    <t>날라리 (LALALAY)</t>
+  </si>
+  <si>
+    <t>선미</t>
+  </si>
+  <si>
+    <t>내 목소리 들리니</t>
+  </si>
+  <si>
+    <t>벤</t>
+  </si>
+  <si>
+    <t>나빠(NAPPA)</t>
+  </si>
+  <si>
+    <t>Crush</t>
+  </si>
+  <si>
+    <t>사랑에 연습이 있었다면 (Prod. by 2soo)</t>
+  </si>
+  <si>
+    <t>임재현</t>
+  </si>
+  <si>
+    <t>헤어져줘서 고마워</t>
+  </si>
+  <si>
+    <t>음파음파 (Umpah Umpah)</t>
+  </si>
+  <si>
+    <t>Red Velvet (레드벨벳)</t>
+  </si>
+  <si>
+    <t>나의 어깨에 기대어요</t>
+  </si>
+  <si>
+    <t>10cm</t>
+  </si>
+  <si>
+    <t>ICY</t>
+  </si>
+  <si>
+    <t>ITZY (있지)</t>
+  </si>
+  <si>
+    <t>bad guy</t>
+  </si>
+  <si>
+    <t>Billie Eilish</t>
+  </si>
+  <si>
+    <t>사랑이 식었다고 말해도 돼</t>
+  </si>
+  <si>
+    <t>먼데이 키즈 (Monday Kiz)</t>
+  </si>
+  <si>
+    <t>그 끝에 그대</t>
+  </si>
+  <si>
+    <t>청하</t>
+  </si>
+  <si>
+    <t>Senorita</t>
+  </si>
+  <si>
+    <t>Camila Cabello &amp; Shawn Mendes</t>
+  </si>
+  <si>
+    <t>모든 날, 모든 순간 (Every day, Every Moment)</t>
+  </si>
+  <si>
+    <t>Say Goodbye</t>
+  </si>
+  <si>
+    <t>작은 것들을 위한 시 (Boy With Luv) (Feat. Halsey)</t>
+  </si>
+  <si>
+    <t>방탄소년단</t>
+  </si>
+  <si>
+    <t>내 맘을 볼 수 있나요</t>
+  </si>
+  <si>
+    <t>헤이즈 (Heize)</t>
+  </si>
+  <si>
+    <t>다시 만날까 봐</t>
+  </si>
+  <si>
+    <t>V.O.S</t>
+  </si>
+  <si>
+    <t>Speechless (Full)</t>
+  </si>
+  <si>
+    <t>Naomi Scott</t>
+  </si>
+  <si>
+    <t>솔직하게 말해서 나</t>
+  </si>
+  <si>
+    <t>김나영</t>
+  </si>
+  <si>
+    <t>사랑이란 멜로는 없어</t>
+  </si>
+  <si>
+    <t>전상근</t>
+  </si>
+  <si>
+    <t>너를 만나</t>
+  </si>
+  <si>
+    <t>너에게 못했던 내 마지막 말은</t>
+  </si>
+  <si>
+    <t>다비치</t>
+  </si>
+  <si>
+    <t>Another Day</t>
+  </si>
+  <si>
+    <t>먼데이 키즈 (Monday Kiz) &amp; 펀치 (Punch)</t>
+  </si>
+  <si>
+    <t>Snapping</t>
+  </si>
+  <si>
+    <t>그때가 좋았어</t>
+  </si>
+  <si>
+    <t>사계 (Four Seasons)</t>
+  </si>
+  <si>
+    <t>담아 (Feat. 염따 &amp; pH-1) (Prod. by BOYCOLD)</t>
+  </si>
+  <si>
+    <t>스윙스 &amp; 키드밀리 &amp; 매드클라운</t>
+  </si>
+  <si>
+    <t>인사</t>
+  </si>
+  <si>
+    <t>멜로망스 (MeloMance)</t>
+  </si>
+  <si>
+    <t>BAND</t>
+  </si>
+  <si>
+    <t>창모 &amp; Hash Swan &amp; ASH ISLAND &amp; 김효은</t>
+  </si>
+  <si>
+    <t>노래방에서</t>
+  </si>
+  <si>
+    <t>비가 내리는 날에는</t>
+  </si>
+  <si>
+    <t>윤하 (YOUNHA)</t>
+  </si>
+  <si>
+    <t>달려</t>
+  </si>
+  <si>
+    <t>청하 &amp; 마미손</t>
+  </si>
+  <si>
+    <t>조금 더 외로워지겠지</t>
+  </si>
+  <si>
+    <t>Paris In The Rain</t>
+  </si>
+  <si>
+    <t>Lauv</t>
+  </si>
+  <si>
+    <t>내 안부</t>
+  </si>
+  <si>
+    <t>이우</t>
+  </si>
+  <si>
+    <t>All Falls Down (Feat. Noah Cyrus &amp; Digital Farm Animals)</t>
+  </si>
+  <si>
+    <t>Alan Walker</t>
   </si>
 </sst>
 </file>
@@ -82,7 +338,7 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -365,23 +621,567 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="55.5" customWidth="1"/>
+    <col min="3" max="3" width="39.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+      <c r="C17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
